--- a/excel/TC03_Login.xlsx
+++ b/excel/TC03_Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\IT496 Project IN Information Technology (AJ.SAYAN)\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\IT496 Project IN Information Technology (AJ.SAYAN)\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F9F32-0059-4268-A7E0-1178A090616A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79168649-13A6-4BBB-A986-805470F81537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{02CACE61-8A48-4707-AED0-8E7ADDC3B807}"/>
   </bookViews>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>TC Desc</t>
   </si>
@@ -76,9 +71,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>“กรุณากรอกข้อมูลให้ถูกต้อง”</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -110,9 +102,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>Niwat015</t>
   </si>
   <si>
     <r>
@@ -129,6 +118,99 @@
     </r>
   </si>
   <si>
+    <t>NIwat</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>เช้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Enter username in field</t>
+  </si>
+  <si>
+    <t>Enter password in field</t>
+  </si>
+  <si>
+    <t>Click Login Button</t>
+  </si>
+  <si>
+    <t>stlpapp.finalproject.app.com.appstlp:id/text04</t>
+  </si>
+  <si>
+    <t>Click Login</t>
+  </si>
+  <si>
+    <t>apk_open</t>
+  </si>
+  <si>
+    <t>vKeyword</t>
+  </si>
+  <si>
+    <t>stlpapp.finalproject.app.com.appstlp:id/username</t>
+  </si>
+  <si>
+    <t>stlpapp.finalproject.app.com.appstlp:id/password</t>
+  </si>
+  <si>
+    <t>stlpapp.finalproject.app.com.appstlp:id/btnsigin</t>
+  </si>
+  <si>
+    <t>vUsername</t>
+  </si>
+  <si>
+    <t>vPassword</t>
+  </si>
+  <si>
+    <t>APK</t>
+  </si>
+  <si>
+    <t>D:\\work\\IT496 Project IN Information Technology (AJ.SAYAN)\\APP\\STLPAPP.apk</t>
+  </si>
+  <si>
+    <t>TDID</t>
+  </si>
+  <si>
+    <t>TDID01</t>
+  </si>
+  <si>
+    <t>TDID02</t>
+  </si>
+  <si>
+    <t>TDID03</t>
+  </si>
+  <si>
+    <t>TDID04</t>
+  </si>
+  <si>
+    <t>TDID05</t>
+  </si>
+  <si>
+    <t>TDID06</t>
+  </si>
+  <si>
+    <t>TDID07</t>
+  </si>
+  <si>
+    <t>TDID08</t>
+  </si>
+  <si>
+    <t>TDID09</t>
+  </si>
+  <si>
+    <t>TDID10</t>
+  </si>
+  <si>
+    <t>TDID11</t>
+  </si>
+  <si>
+    <t>Niwat01</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Niwat </t>
     </r>
@@ -139,110 +221,44 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>015</t>
+      <t>01</t>
     </r>
   </si>
   <si>
-    <t>NIwat</t>
-  </si>
-  <si>
-    <t>Niwat015Niwat015Niwat015</t>
-  </si>
-  <si>
-    <t>Niwat015Niwat015 Niwat015</t>
+    <t>Niwat01Niwat01Niwat01</t>
+  </si>
+  <si>
+    <t>button_click_process</t>
   </si>
   <si>
     <t>เข้าสู่ระบบสำเร็จ</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>เช้าสู่ระบบ</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Enter username in field</t>
-  </si>
-  <si>
-    <t>Enter password in field</t>
-  </si>
-  <si>
-    <t>Click Login Button</t>
-  </si>
-  <si>
-    <t>stlpapp.finalproject.app.com.appstlp:id/text04</t>
-  </si>
-  <si>
-    <t>Click Login</t>
-  </si>
-  <si>
-    <t>apk_open</t>
-  </si>
-  <si>
-    <t>vKeyword</t>
-  </si>
-  <si>
-    <t>stlpapp.finalproject.app.com.appstlp:id/username</t>
-  </si>
-  <si>
-    <t>stlpapp.finalproject.app.com.appstlp:id/password</t>
-  </si>
-  <si>
-    <t>stlpapp.finalproject.app.com.appstlp:id/btnsigin</t>
-  </si>
-  <si>
-    <t>vUsername</t>
-  </si>
-  <si>
-    <t>vPassword</t>
-  </si>
-  <si>
-    <t>APK</t>
-  </si>
-  <si>
-    <t>D:\\work\\IT496 Project IN Information Technology (AJ.SAYAN)\\APP\\STLPAPP.apk</t>
-  </si>
-  <si>
-    <t>test01</t>
-  </si>
-  <si>
-    <t>TDID</t>
-  </si>
-  <si>
-    <t>TDID01</t>
-  </si>
-  <si>
-    <t>TDID02</t>
-  </si>
-  <si>
-    <t>TDID03</t>
-  </si>
-  <si>
-    <t>TDID04</t>
-  </si>
-  <si>
-    <t>TDID05</t>
-  </si>
-  <si>
-    <t>TDID06</t>
-  </si>
-  <si>
-    <t>TDID07</t>
-  </si>
-  <si>
-    <t>TDID08</t>
-  </si>
-  <si>
-    <t>TDID09</t>
-  </si>
-  <si>
-    <t>TDID10</t>
-  </si>
-  <si>
-    <t>TDID11</t>
+    <t>รหัสผ่านต้องไม่มีช่องว่าง</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ใช้งานต้องไม่มีช่องว่าง</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ใช้งานต้องไม่มีอักขระพิเศษ</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ใช้งานต้องมีความยาว 6-18 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>รหัสผ่านต้องไม่มีอักขระพิเศษ</t>
+  </si>
+  <si>
+    <t>รหัสผ่านต้องมีความยาว 6-18 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>กรุณากรอก password</t>
+  </si>
+  <si>
+    <t>กรุณากรอก username</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -408,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,21 +447,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -458,17 +462,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,7 +850,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="30" customHeight="1"/>
@@ -829,16 +863,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -852,19 +886,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +912,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="27" customHeight="1"/>
@@ -893,55 +927,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -950,22 +984,22 @@
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>40</v>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -974,25 +1008,25 @@
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1000,25 +1034,25 @@
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>37</v>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1026,22 +1060,22 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1050,19 +1084,19 @@
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1081,300 +1115,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D88CB84-7895-4465-A78B-6A22CB5104B1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="74.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1"/>
-    <col min="8" max="8" width="23.69921875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.59765625" style="1"/>
+    <col min="1" max="1" width="11.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="29.8984375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="13"/>
+    <col min="8" max="8" width="23.69921875" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="15.59765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="27" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="B8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="B9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="B11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="27" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="24.6" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
